--- a/Ren'Py词汇表_20190203.xlsx
+++ b/Ren'Py词汇表_20190203.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="282">
   <si>
     <t>image</t>
   </si>
@@ -737,359 +737,359 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>saturation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱和度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>opacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>brightness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>luminance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亮度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>placeholder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占位组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dissolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溶解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转场效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pixellate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像素化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转场效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>families</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>族群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inspector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyperlink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用域/作用范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>variant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toggle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非运算"^"，True变为False，False变为True。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTC/click-to-ccontinue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prediction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interactive director</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gallery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画廊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drag and drop displayable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拖放组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互动作/交互行为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>achievement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>persistent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持久化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集/集合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>namespace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命名空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in-App purchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序内购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gesture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prefix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suffix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按键映射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keymap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layeredimage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>层叠式图像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境设定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>field name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互式编导器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>credits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>convenience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便利方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>image manipulator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图像操纵器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saturation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱和度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>opacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>brightness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>luminance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>placeholder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占位组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dissolve</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溶解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转场效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pixellate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>像素化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转场效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ease</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>families</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>族群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inspector</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hyperlink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scope</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用域/作用范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>variant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变种</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toggle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>切换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非运算"^"，True变为False，False变为True。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CTC/click-to-ccontinue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击继续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prediction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预加载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reuse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interactive director</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gallery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>画廊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drag and drop displayable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拖放组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>interaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互动作/交互行为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>achievement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成就</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>persistent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>持久化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>集/集合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>accent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>namespace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命名空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color space</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩空间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>in-App purchase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序内购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Raspberry Pi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>树莓派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮肤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gesture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suffix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按键映射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keymap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>layeredimage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>层叠式图像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境设定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>field name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交互式编导器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>credits</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>convenience</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>便利方案</t>
+    <t>图像处理器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1458,18 +1458,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1533,10 +1533,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1624,10 +1624,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -1656,15 +1656,15 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B27" t="s">
         <v>115</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1728,29 +1728,29 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" t="s">
         <v>207</v>
-      </c>
-      <c r="B35" t="s">
-        <v>208</v>
-      </c>
-      <c r="C35" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -1819,26 +1819,26 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1878,18 +1878,18 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1918,18 +1918,18 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1942,10 +1942,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="B61" t="s">
-        <v>194</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -1966,10 +1966,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1990,34 +1990,34 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B67" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -2046,10 +2046,10 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B74" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -2062,10 +2062,10 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -2078,10 +2078,10 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -2126,10 +2126,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -2150,10 +2150,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2166,29 +2166,29 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>208</v>
+      </c>
+      <c r="B90" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" t="s">
         <v>210</v>
-      </c>
-      <c r="B90" t="s">
-        <v>211</v>
-      </c>
-      <c r="C90" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,10 +2201,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B93" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2212,12 +2212,12 @@
         <v>120</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B95" t="s">
         <v>161</v>
@@ -2249,10 +2249,10 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -2260,15 +2260,15 @@
         <v>72</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B101" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -2281,10 +2281,10 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B103" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -2297,10 +2297,10 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B105" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -2337,10 +2337,10 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -2348,7 +2348,7 @@
         <v>132</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -2361,10 +2361,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2441,7 +2441,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B123" t="s">
         <v>162</v>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>227</v>
+      </c>
+      <c r="B128" t="s">
+        <v>228</v>
+      </c>
+      <c r="C128" t="s">
         <v>229</v>
-      </c>
-      <c r="B128" t="s">
-        <v>230</v>
-      </c>
-      <c r="C128" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -2535,10 +2535,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B134" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2559,10 +2559,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
